--- a/DaySale_2025-05-27_23-43.xlsx
+++ b/DaySale_2025-05-27_23-43.xlsx
@@ -567,6 +567,15 @@
   </si>
   <si>
     <t>120.0000</t>
+  </si>
+  <si>
+    <t>JOYPOX 60 MG 6 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
   </si>
   <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
@@ -3439,7 +3448,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3515,14 +3524,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3538,7 +3547,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3647,11 +3656,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>38</v>
@@ -3663,28 +3672,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>38</v>
@@ -3696,31 +3705,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,11 +3821,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3828,7 +3837,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3868,13 +3877,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3901,13 +3910,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3934,7 +3943,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3951,7 +3960,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3967,7 +3976,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>145</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4017,7 +4026,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4033,7 +4042,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4050,7 +4059,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4066,7 +4075,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4083,7 +4092,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4099,7 +4108,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,11 +4118,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>38</v>
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4151,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,11 +4217,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4231,7 +4240,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4248,7 +4257,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,14 +4349,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4373,11 +4382,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4422,14 +4431,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,14 +4481,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4505,14 +4514,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>40</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,31 +4530,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,14 +4563,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4571,11 +4580,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4587,14 +4596,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4608,10 +4617,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,7 +4629,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>283</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4736,7 +4745,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4759,7 +4768,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,11 +4778,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,11 +4811,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4818,14 +4827,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,11 +4844,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,11 +4877,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4884,14 +4893,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4901,11 +4910,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4934,11 +4943,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4950,14 +4959,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4967,49 +4976,82 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5543.2799999999997</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>302</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>303</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>57</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>151</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>304</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5560.2399999999998</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>305</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>306</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>307</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5538,10 +5580,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
